--- a/Code/Results/Cases/Case_4_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012819027509834</v>
+        <v>1.03833417482769</v>
       </c>
       <c r="D2">
-        <v>1.028181332277404</v>
+        <v>1.041792446057049</v>
       </c>
       <c r="E2">
-        <v>1.029822984741767</v>
+        <v>1.052032207462182</v>
       </c>
       <c r="F2">
-        <v>1.03529481247652</v>
+        <v>1.059771666515263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047758458387606</v>
+        <v>1.040317102431977</v>
       </c>
       <c r="J2">
-        <v>1.034622969000224</v>
+        <v>1.04343217696631</v>
       </c>
       <c r="K2">
-        <v>1.039261536005992</v>
+        <v>1.044570958553282</v>
       </c>
       <c r="L2">
-        <v>1.040881903484205</v>
+        <v>1.054782063451087</v>
       </c>
       <c r="M2">
-        <v>1.046283394920805</v>
+        <v>1.062500261231362</v>
       </c>
       <c r="N2">
-        <v>1.015302242228392</v>
+        <v>1.018396581411455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016771531500345</v>
+        <v>1.039177860110964</v>
       </c>
       <c r="D3">
-        <v>1.031068654141908</v>
+        <v>1.042429439714194</v>
       </c>
       <c r="E3">
-        <v>1.033464619160383</v>
+        <v>1.052867238487455</v>
       </c>
       <c r="F3">
-        <v>1.039275183893851</v>
+        <v>1.06069112053527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048893088330842</v>
+        <v>1.040515125507956</v>
       </c>
       <c r="J3">
-        <v>1.036815199858865</v>
+        <v>1.043921142922674</v>
       </c>
       <c r="K3">
-        <v>1.041318858897698</v>
+        <v>1.045019108057099</v>
       </c>
       <c r="L3">
-        <v>1.0436864963451</v>
+        <v>1.055429802046257</v>
       </c>
       <c r="M3">
-        <v>1.049429033357962</v>
+        <v>1.063233744205571</v>
       </c>
       <c r="N3">
-        <v>1.016043511243182</v>
+        <v>1.018560634815528</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019282346130902</v>
+        <v>1.039724423549446</v>
       </c>
       <c r="D4">
-        <v>1.032905469420434</v>
+        <v>1.042842116663374</v>
       </c>
       <c r="E4">
-        <v>1.035783183055779</v>
+        <v>1.053408577159608</v>
       </c>
       <c r="F4">
-        <v>1.041809497056899</v>
+        <v>1.06128724151901</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049605908475967</v>
+        <v>1.040642410101705</v>
       </c>
       <c r="J4">
-        <v>1.0382053458918</v>
+        <v>1.044237511790226</v>
       </c>
       <c r="K4">
-        <v>1.042622335127539</v>
+        <v>1.045308900607756</v>
       </c>
       <c r="L4">
-        <v>1.045468097960678</v>
+        <v>1.055849300118856</v>
       </c>
       <c r="M4">
-        <v>1.051428204835275</v>
+        <v>1.063708895597561</v>
       </c>
       <c r="N4">
-        <v>1.016513401952607</v>
+        <v>1.018666733691259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02032705688829</v>
+        <v>1.039954351114867</v>
       </c>
       <c r="D5">
-        <v>1.033670335469182</v>
+        <v>1.043015723931967</v>
       </c>
       <c r="E5">
-        <v>1.036749130714131</v>
+        <v>1.053636397811042</v>
       </c>
       <c r="F5">
-        <v>1.042865356484622</v>
+        <v>1.061538129719203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049900564828328</v>
+        <v>1.04069571647186</v>
       </c>
       <c r="J5">
-        <v>1.038783147852588</v>
+        <v>1.044370506130032</v>
       </c>
       <c r="K5">
-        <v>1.043163836159615</v>
+        <v>1.045430682665484</v>
       </c>
       <c r="L5">
-        <v>1.046209366592324</v>
+        <v>1.056025743717313</v>
       </c>
       <c r="M5">
-        <v>1.052260222831501</v>
+        <v>1.063908776669779</v>
       </c>
       <c r="N5">
-        <v>1.016708665367675</v>
+        <v>1.018711324123824</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020501842881149</v>
+        <v>1.039992965850424</v>
       </c>
       <c r="D6">
-        <v>1.033798335724223</v>
+        <v>1.04304488021954</v>
       </c>
       <c r="E6">
-        <v>1.036910810751268</v>
+        <v>1.053674664032723</v>
       </c>
       <c r="F6">
-        <v>1.043042087768438</v>
+        <v>1.061580271256203</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049949747793497</v>
+        <v>1.04070465485923</v>
       </c>
       <c r="J6">
-        <v>1.038879780428136</v>
+        <v>1.04439283601196</v>
       </c>
       <c r="K6">
-        <v>1.04325438115957</v>
+        <v>1.045451127633395</v>
       </c>
       <c r="L6">
-        <v>1.046333382608802</v>
+        <v>1.056055374410114</v>
       </c>
       <c r="M6">
-        <v>1.052399434796358</v>
+        <v>1.063942345007889</v>
       </c>
       <c r="N6">
-        <v>1.016741318970867</v>
+        <v>1.018718810246823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019296347732009</v>
+        <v>1.039727495256347</v>
       </c>
       <c r="D7">
-        <v>1.03291571813915</v>
+        <v>1.042844435951135</v>
       </c>
       <c r="E7">
-        <v>1.035796124222506</v>
+        <v>1.053411620362135</v>
       </c>
       <c r="F7">
-        <v>1.041823642686964</v>
+        <v>1.06129059280566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04960986525644</v>
+        <v>1.040643123186748</v>
       </c>
       <c r="J7">
-        <v>1.038213092273979</v>
+        <v>1.044239288896621</v>
       </c>
       <c r="K7">
-        <v>1.042629595942943</v>
+        <v>1.045310528050705</v>
       </c>
       <c r="L7">
-        <v>1.045478032862668</v>
+        <v>1.055851657428373</v>
       </c>
       <c r="M7">
-        <v>1.051439355116529</v>
+        <v>1.063711565919502</v>
       </c>
       <c r="N7">
-        <v>1.016516019950297</v>
+        <v>1.018667329564551</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014164683417733</v>
+        <v>1.03861916821972</v>
       </c>
       <c r="D8">
-        <v>1.029163758931027</v>
+        <v>1.042007616612634</v>
       </c>
       <c r="E8">
-        <v>1.031061692820421</v>
+        <v>1.052314198301539</v>
       </c>
       <c r="F8">
-        <v>1.0366487303786</v>
+        <v>1.060082156385295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048146396953963</v>
+        <v>1.040384200757453</v>
       </c>
       <c r="J8">
-        <v>1.035369827917417</v>
+        <v>1.043597429717688</v>
       </c>
       <c r="K8">
-        <v>1.039962663873742</v>
+        <v>1.044722451419792</v>
       </c>
       <c r="L8">
-        <v>1.04183673049369</v>
+        <v>1.055000892687352</v>
       </c>
       <c r="M8">
-        <v>1.047354140559961</v>
+        <v>1.062748032712904</v>
       </c>
       <c r="N8">
-        <v>1.015554814090148</v>
+        <v>1.018452035070502</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004747752821608</v>
+        <v>1.036671145115757</v>
       </c>
       <c r="D9">
-        <v>1.022301664891006</v>
+        <v>1.040536934080086</v>
       </c>
       <c r="E9">
-        <v>1.022416358100102</v>
+        <v>1.050388274047347</v>
       </c>
       <c r="F9">
-        <v>1.02719931998732</v>
+        <v>1.057961799466998</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045399221793387</v>
+        <v>1.039921469852767</v>
       </c>
       <c r="J9">
-        <v>1.030133962516211</v>
+        <v>1.042466254727147</v>
       </c>
       <c r="K9">
-        <v>1.035042986476606</v>
+        <v>1.043684782480096</v>
       </c>
       <c r="L9">
-        <v>1.035155921283162</v>
+        <v>1.05350461891097</v>
       </c>
       <c r="M9">
-        <v>1.039865999371092</v>
+        <v>1.061054360953965</v>
       </c>
       <c r="N9">
-        <v>1.013783565755261</v>
+        <v>1.018072260131101</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.998193885375165</v>
+        <v>1.035375911124437</v>
       </c>
       <c r="D10">
-        <v>1.01754429559148</v>
+        <v>1.039559202198092</v>
       </c>
       <c r="E10">
-        <v>1.016430159320524</v>
+        <v>1.049109724548928</v>
       </c>
       <c r="F10">
-        <v>1.0206559985496</v>
+        <v>1.056554429848424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04344756359354</v>
+        <v>1.039608668931062</v>
       </c>
       <c r="J10">
-        <v>1.026479345554359</v>
+        <v>1.041712117086902</v>
       </c>
       <c r="K10">
-        <v>1.031603846384724</v>
+        <v>1.042992132175661</v>
       </c>
       <c r="L10">
-        <v>1.030508966273887</v>
+        <v>1.052509128359177</v>
       </c>
       <c r="M10">
-        <v>1.034662056000082</v>
+        <v>1.059928162264758</v>
       </c>
       <c r="N10">
-        <v>1.012546613940917</v>
+        <v>1.017818835835243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995284746832129</v>
+        <v>1.034815897787729</v>
       </c>
       <c r="D11">
-        <v>1.015437625722691</v>
+        <v>1.039136500724814</v>
       </c>
       <c r="E11">
-        <v>1.013780702529253</v>
+        <v>1.048557401715347</v>
       </c>
       <c r="F11">
-        <v>1.017759749601439</v>
+        <v>1.055946517100101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04257228561023</v>
+        <v>1.039472208122711</v>
       </c>
       <c r="J11">
-        <v>1.024855010054034</v>
+        <v>1.041385577183917</v>
       </c>
       <c r="K11">
-        <v>1.030074167342928</v>
+        <v>1.042692015562946</v>
       </c>
       <c r="L11">
-        <v>1.028447331696832</v>
+        <v>1.052078568738936</v>
       </c>
       <c r="M11">
-        <v>1.032354338770117</v>
+        <v>1.059441217215251</v>
       </c>
       <c r="N11">
-        <v>1.011996727835098</v>
+        <v>1.017709048834058</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9941929278147033</v>
+        <v>1.034608010383187</v>
       </c>
       <c r="D12">
-        <v>1.014647794455627</v>
+        <v>1.038979591894655</v>
       </c>
       <c r="E12">
-        <v>1.012787539885102</v>
+        <v>1.048352441174316</v>
       </c>
       <c r="F12">
-        <v>1.016674032488023</v>
+        <v>1.055720936578202</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042242478930818</v>
+        <v>1.039421368545196</v>
       </c>
       <c r="J12">
-        <v>1.024245103059851</v>
+        <v>1.04126428792901</v>
       </c>
       <c r="K12">
-        <v>1.029499645327214</v>
+        <v>1.04258051089416</v>
       </c>
       <c r="L12">
-        <v>1.027673784090689</v>
+        <v>1.051918715477338</v>
       </c>
       <c r="M12">
-        <v>1.031488607763301</v>
+        <v>1.059260451868323</v>
       </c>
       <c r="N12">
-        <v>1.011790243085007</v>
+        <v>1.017668261605361</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9944276439562842</v>
+        <v>1.034652597188499</v>
       </c>
       <c r="D13">
-        <v>1.014817552283911</v>
+        <v>1.039013244758809</v>
       </c>
       <c r="E13">
-        <v>1.013000992470233</v>
+        <v>1.048396396973609</v>
       </c>
       <c r="F13">
-        <v>1.016907379206538</v>
+        <v>1.055769314139098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042313438343493</v>
+        <v>1.039432280672652</v>
       </c>
       <c r="J13">
-        <v>1.024376231338655</v>
+        <v>1.041290304766859</v>
       </c>
       <c r="K13">
-        <v>1.029623172841575</v>
+        <v>1.042604430271427</v>
       </c>
       <c r="L13">
-        <v>1.02784006959577</v>
+        <v>1.051953001092866</v>
       </c>
       <c r="M13">
-        <v>1.0316747027772</v>
+        <v>1.05929922174842</v>
       </c>
       <c r="N13">
-        <v>1.011834637255554</v>
+        <v>1.017677010934103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9951947290959298</v>
+        <v>1.034798711160786</v>
       </c>
       <c r="D14">
-        <v>1.015372489177319</v>
+        <v>1.039123528515131</v>
       </c>
       <c r="E14">
-        <v>1.013698794212647</v>
+        <v>1.048540455588936</v>
       </c>
       <c r="F14">
-        <v>1.01767020905693</v>
+        <v>1.055927865936227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042545120265783</v>
+        <v>1.039468008803335</v>
       </c>
       <c r="J14">
-        <v>1.02480473030193</v>
+        <v>1.041375551324349</v>
       </c>
       <c r="K14">
-        <v>1.030026807794864</v>
+        <v>1.042682799116298</v>
       </c>
       <c r="L14">
-        <v>1.028383550397227</v>
+        <v>1.052065353664581</v>
       </c>
       <c r="M14">
-        <v>1.032282953663242</v>
+        <v>1.059426272888481</v>
       </c>
       <c r="N14">
-        <v>1.011979705809154</v>
+        <v>1.017705677498316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9956658504362458</v>
+        <v>1.03488875360835</v>
       </c>
       <c r="D15">
-        <v>1.015713424703239</v>
+        <v>1.039191491454446</v>
       </c>
       <c r="E15">
-        <v>1.014127522702319</v>
+        <v>1.04862924098206</v>
       </c>
       <c r="F15">
-        <v>1.018138884696606</v>
+        <v>1.056025584846366</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042687241024872</v>
+        <v>1.039490001968288</v>
       </c>
       <c r="J15">
-        <v>1.025067865603422</v>
+        <v>1.041428074869967</v>
       </c>
       <c r="K15">
-        <v>1.030274654102519</v>
+        <v>1.042731081074847</v>
       </c>
       <c r="L15">
-        <v>1.028717367693771</v>
+        <v>1.052134587874302</v>
       </c>
       <c r="M15">
-        <v>1.032656573682978</v>
+        <v>1.05950456761153</v>
       </c>
       <c r="N15">
-        <v>1.012068788791577</v>
+        <v>1.017723338941314</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9983854093966472</v>
+        <v>1.035413095017269</v>
       </c>
       <c r="D16">
-        <v>1.01768309887088</v>
+        <v>1.039587269616391</v>
       </c>
       <c r="E16">
-        <v>1.016604751058926</v>
+        <v>1.049146407888554</v>
       </c>
       <c r="F16">
-        <v>1.020846847814453</v>
+        <v>1.056594806514744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043505003864024</v>
+        <v>1.039617704038418</v>
       </c>
       <c r="J16">
-        <v>1.026586242917122</v>
+        <v>1.041733788707961</v>
       </c>
       <c r="K16">
-        <v>1.031704492074214</v>
+        <v>1.043012045933846</v>
       </c>
       <c r="L16">
-        <v>1.030644719939765</v>
+        <v>1.052537713725038</v>
       </c>
       <c r="M16">
-        <v>1.034814034637142</v>
+        <v>1.059960494223412</v>
       </c>
       <c r="N16">
-        <v>1.012582799903536</v>
+        <v>1.01782612096743</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000071872958274</v>
+        <v>1.035742224250808</v>
       </c>
       <c r="D17">
-        <v>1.018905911597437</v>
+        <v>1.039835709493505</v>
       </c>
       <c r="E17">
-        <v>1.01814300049939</v>
+        <v>1.049471161691346</v>
       </c>
       <c r="F17">
-        <v>1.02252830938595</v>
+        <v>1.056952263800569</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044009775278487</v>
+        <v>1.039697536652926</v>
       </c>
       <c r="J17">
-        <v>1.0275272894746</v>
+        <v>1.041925557555999</v>
       </c>
       <c r="K17">
-        <v>1.032590377726367</v>
+        <v>1.043188236564931</v>
       </c>
       <c r="L17">
-        <v>1.031840223509277</v>
+        <v>1.052790717318991</v>
       </c>
       <c r="M17">
-        <v>1.036152538618612</v>
+        <v>1.060246675194112</v>
       </c>
       <c r="N17">
-        <v>1.012901342765107</v>
+        <v>1.017890579653807</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00104871932136</v>
+        <v>1.035934279890238</v>
       </c>
       <c r="D18">
-        <v>1.019614673393509</v>
+        <v>1.03998068411349</v>
       </c>
       <c r="E18">
-        <v>1.01903472693339</v>
+        <v>1.049660710162034</v>
       </c>
       <c r="F18">
-        <v>1.02350303667746</v>
+        <v>1.057160905993928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044301297102417</v>
+        <v>1.03974400359682</v>
       </c>
       <c r="J18">
-        <v>1.028072165764831</v>
+        <v>1.042037413643655</v>
       </c>
       <c r="K18">
-        <v>1.033103208634966</v>
+        <v>1.043290986734747</v>
       </c>
       <c r="L18">
-        <v>1.032532790571724</v>
+        <v>1.052938337633881</v>
       </c>
       <c r="M18">
-        <v>1.036928045202238</v>
+        <v>1.060413667764228</v>
       </c>
       <c r="N18">
-        <v>1.013085772001959</v>
+        <v>1.017928172208485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001380654132741</v>
+        <v>1.035999779443604</v>
       </c>
       <c r="D19">
-        <v>1.019855591218605</v>
+        <v>1.040030127488727</v>
       </c>
       <c r="E19">
-        <v>1.01933786045034</v>
+        <v>1.049725362451439</v>
       </c>
       <c r="F19">
-        <v>1.023834382525664</v>
+        <v>1.057232071858078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044400210634259</v>
+        <v>1.039759830969027</v>
       </c>
       <c r="J19">
-        <v>1.028257280451053</v>
+        <v>1.042075553737882</v>
       </c>
       <c r="K19">
-        <v>1.033277417916262</v>
+        <v>1.043326018653931</v>
       </c>
       <c r="L19">
-        <v>1.032768142137352</v>
+        <v>1.05298868037501</v>
       </c>
       <c r="M19">
-        <v>1.037191598445794</v>
+        <v>1.060470619409421</v>
       </c>
       <c r="N19">
-        <v>1.013148427560338</v>
+        <v>1.017940989418129</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998916425129938</v>
+        <v>1.035706903499872</v>
       </c>
       <c r="D20">
-        <v>1.018775181329931</v>
+        <v>1.039809047629869</v>
       </c>
       <c r="E20">
-        <v>1.01797853357045</v>
+        <v>1.049436305731903</v>
       </c>
       <c r="F20">
-        <v>1.022348532569177</v>
+        <v>1.056913897170234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043955919408265</v>
+        <v>1.039688981507825</v>
       </c>
       <c r="J20">
-        <v>1.02742674179867</v>
+        <v>1.041904982506575</v>
       </c>
       <c r="K20">
-        <v>1.032495734791656</v>
+        <v>1.043169334918035</v>
       </c>
       <c r="L20">
-        <v>1.031712450937845</v>
+        <v>1.052763567493692</v>
       </c>
       <c r="M20">
-        <v>1.036009472378181</v>
+        <v>1.060215963633932</v>
       </c>
       <c r="N20">
-        <v>1.012867308599543</v>
+        <v>1.017883664371694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9949691561946822</v>
+        <v>1.034755680733672</v>
       </c>
       <c r="D21">
-        <v>1.01520927870254</v>
+        <v>1.039091049886916</v>
       </c>
       <c r="E21">
-        <v>1.013493561885273</v>
+        <v>1.048498028471431</v>
       </c>
       <c r="F21">
-        <v>1.017445852419598</v>
+        <v>1.055881170148432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042477026438433</v>
+        <v>1.039457491948669</v>
       </c>
       <c r="J21">
-        <v>1.024678731252955</v>
+        <v>1.041350448267377</v>
       </c>
       <c r="K21">
-        <v>1.029908124172494</v>
+        <v>1.04265972220781</v>
       </c>
       <c r="L21">
-        <v>1.028223725956636</v>
+        <v>1.052032266529503</v>
       </c>
       <c r="M21">
-        <v>1.032104077844559</v>
+        <v>1.059388856507824</v>
       </c>
       <c r="N21">
-        <v>1.011937049094497</v>
+        <v>1.017697236111598</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918089037747251</v>
+        <v>1.034158341793119</v>
       </c>
       <c r="D22">
-        <v>1.01292473761096</v>
+        <v>1.038640203255912</v>
       </c>
       <c r="E22">
-        <v>1.010621177508399</v>
+        <v>1.04790923555875</v>
       </c>
       <c r="F22">
-        <v>1.014305691305009</v>
+        <v>1.055233158345836</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041519973594197</v>
+        <v>1.039311066433263</v>
       </c>
       <c r="J22">
-        <v>1.022912870257612</v>
+        <v>1.041001803930711</v>
       </c>
       <c r="K22">
-        <v>1.028244428746136</v>
+        <v>1.042339147097527</v>
       </c>
       <c r="L22">
-        <v>1.025985122887909</v>
+        <v>1.051572907599755</v>
       </c>
       <c r="M22">
-        <v>1.029598978694728</v>
+        <v>1.058869445488468</v>
       </c>
       <c r="N22">
-        <v>1.011339193895515</v>
+        <v>1.01757997839772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9934905868486082</v>
+        <v>1.034474932508172</v>
       </c>
       <c r="D23">
-        <v>1.0141399524452</v>
+        <v>1.038879149363761</v>
       </c>
       <c r="E23">
-        <v>1.012149004175656</v>
+        <v>1.04822125723009</v>
       </c>
       <c r="F23">
-        <v>1.015975976993006</v>
+        <v>1.0555765573785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042029958392755</v>
+        <v>1.039388772446855</v>
       </c>
       <c r="J23">
-        <v>1.023852689300519</v>
+        <v>1.041186625223185</v>
       </c>
       <c r="K23">
-        <v>1.029129955450985</v>
+        <v>1.042509104917924</v>
       </c>
       <c r="L23">
-        <v>1.027176240035469</v>
+        <v>1.051816380351854</v>
       </c>
       <c r="M23">
-        <v>1.030931813064762</v>
+        <v>1.059144735410762</v>
       </c>
       <c r="N23">
-        <v>1.011657387691307</v>
+        <v>1.017642142841643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9999731019907031</v>
+        <v>1.035722863179464</v>
       </c>
       <c r="D24">
-        <v>1.018834266546431</v>
+        <v>1.039821094781359</v>
       </c>
       <c r="E24">
-        <v>1.018052866089425</v>
+        <v>1.049452055253395</v>
       </c>
       <c r="F24">
-        <v>1.022429784608939</v>
+        <v>1.056931232956137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043980263517336</v>
+        <v>1.039692847512744</v>
       </c>
       <c r="J24">
-        <v>1.027472187370003</v>
+        <v>1.041914279484174</v>
       </c>
       <c r="K24">
-        <v>1.032538511867427</v>
+        <v>1.043177875817033</v>
       </c>
       <c r="L24">
-        <v>1.031770200517943</v>
+        <v>1.052775835184204</v>
       </c>
       <c r="M24">
-        <v>1.036074133959131</v>
+        <v>1.060229840655941</v>
       </c>
       <c r="N24">
-        <v>1.012882691405832</v>
+        <v>1.017886789105851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007229024003521</v>
+        <v>1.037174154828436</v>
       </c>
       <c r="D25">
-        <v>1.024106791684128</v>
+        <v>1.040916668181653</v>
       </c>
       <c r="E25">
-        <v>1.024689159434209</v>
+        <v>1.050885227624768</v>
       </c>
       <c r="F25">
-        <v>1.029683530295264</v>
+        <v>1.058508877428793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046130081456775</v>
+        <v>1.040041860188395</v>
       </c>
       <c r="J25">
-        <v>1.03151552801727</v>
+        <v>1.042758699491904</v>
       </c>
       <c r="K25">
-        <v>1.036342061560937</v>
+        <v>1.043953203580112</v>
       </c>
       <c r="L25">
-        <v>1.03691592703507</v>
+        <v>1.053891090974873</v>
       </c>
       <c r="M25">
-        <v>1.041837882919786</v>
+        <v>1.061491708664644</v>
       </c>
       <c r="N25">
-        <v>1.014251058435238</v>
+        <v>1.01817048550731</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03833417482769</v>
+        <v>1.012819027509833</v>
       </c>
       <c r="D2">
-        <v>1.041792446057049</v>
+        <v>1.028181332277404</v>
       </c>
       <c r="E2">
-        <v>1.052032207462182</v>
+        <v>1.029822984741767</v>
       </c>
       <c r="F2">
-        <v>1.059771666515263</v>
+        <v>1.03529481247652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040317102431977</v>
+        <v>1.047758458387606</v>
       </c>
       <c r="J2">
-        <v>1.04343217696631</v>
+        <v>1.034622969000224</v>
       </c>
       <c r="K2">
-        <v>1.044570958553282</v>
+        <v>1.039261536005992</v>
       </c>
       <c r="L2">
-        <v>1.054782063451087</v>
+        <v>1.040881903484205</v>
       </c>
       <c r="M2">
-        <v>1.062500261231362</v>
+        <v>1.046283394920805</v>
       </c>
       <c r="N2">
-        <v>1.018396581411455</v>
+        <v>1.015302242228392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039177860110964</v>
+        <v>1.016771531500344</v>
       </c>
       <c r="D3">
-        <v>1.042429439714194</v>
+        <v>1.031068654141907</v>
       </c>
       <c r="E3">
-        <v>1.052867238487455</v>
+        <v>1.033464619160382</v>
       </c>
       <c r="F3">
-        <v>1.06069112053527</v>
+        <v>1.039275183893849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040515125507956</v>
+        <v>1.048893088330842</v>
       </c>
       <c r="J3">
-        <v>1.043921142922674</v>
+        <v>1.036815199858864</v>
       </c>
       <c r="K3">
-        <v>1.045019108057099</v>
+        <v>1.041318858897698</v>
       </c>
       <c r="L3">
-        <v>1.055429802046257</v>
+        <v>1.0436864963451</v>
       </c>
       <c r="M3">
-        <v>1.063233744205571</v>
+        <v>1.049429033357961</v>
       </c>
       <c r="N3">
-        <v>1.018560634815528</v>
+        <v>1.016043511243182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039724423549446</v>
+        <v>1.019282346130902</v>
       </c>
       <c r="D4">
-        <v>1.042842116663374</v>
+        <v>1.032905469420434</v>
       </c>
       <c r="E4">
-        <v>1.053408577159608</v>
+        <v>1.035783183055779</v>
       </c>
       <c r="F4">
-        <v>1.06128724151901</v>
+        <v>1.041809497056899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040642410101705</v>
+        <v>1.049605908475966</v>
       </c>
       <c r="J4">
-        <v>1.044237511790226</v>
+        <v>1.0382053458918</v>
       </c>
       <c r="K4">
-        <v>1.045308900607756</v>
+        <v>1.042622335127539</v>
       </c>
       <c r="L4">
-        <v>1.055849300118856</v>
+        <v>1.045468097960678</v>
       </c>
       <c r="M4">
-        <v>1.063708895597561</v>
+        <v>1.051428204835276</v>
       </c>
       <c r="N4">
-        <v>1.018666733691259</v>
+        <v>1.016513401952607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.039954351114867</v>
+        <v>1.02032705688829</v>
       </c>
       <c r="D5">
-        <v>1.043015723931967</v>
+        <v>1.033670335469182</v>
       </c>
       <c r="E5">
-        <v>1.053636397811042</v>
+        <v>1.036749130714131</v>
       </c>
       <c r="F5">
-        <v>1.061538129719203</v>
+        <v>1.042865356484622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04069571647186</v>
+        <v>1.049900564828328</v>
       </c>
       <c r="J5">
-        <v>1.044370506130032</v>
+        <v>1.038783147852588</v>
       </c>
       <c r="K5">
-        <v>1.045430682665484</v>
+        <v>1.043163836159616</v>
       </c>
       <c r="L5">
-        <v>1.056025743717313</v>
+        <v>1.046209366592324</v>
       </c>
       <c r="M5">
-        <v>1.063908776669779</v>
+        <v>1.052260222831501</v>
       </c>
       <c r="N5">
-        <v>1.018711324123824</v>
+        <v>1.016708665367675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039992965850424</v>
+        <v>1.020501842881149</v>
       </c>
       <c r="D6">
-        <v>1.04304488021954</v>
+        <v>1.033798335724223</v>
       </c>
       <c r="E6">
-        <v>1.053674664032723</v>
+        <v>1.036910810751268</v>
       </c>
       <c r="F6">
-        <v>1.061580271256203</v>
+        <v>1.043042087768438</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04070465485923</v>
+        <v>1.049949747793497</v>
       </c>
       <c r="J6">
-        <v>1.04439283601196</v>
+        <v>1.038879780428136</v>
       </c>
       <c r="K6">
-        <v>1.045451127633395</v>
+        <v>1.04325438115957</v>
       </c>
       <c r="L6">
-        <v>1.056055374410114</v>
+        <v>1.046333382608802</v>
       </c>
       <c r="M6">
-        <v>1.063942345007889</v>
+        <v>1.052399434796358</v>
       </c>
       <c r="N6">
-        <v>1.018718810246823</v>
+        <v>1.016741318970867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039727495256347</v>
+        <v>1.019296347732009</v>
       </c>
       <c r="D7">
-        <v>1.042844435951135</v>
+        <v>1.032915718139149</v>
       </c>
       <c r="E7">
-        <v>1.053411620362135</v>
+        <v>1.035796124222504</v>
       </c>
       <c r="F7">
-        <v>1.06129059280566</v>
+        <v>1.041823642686963</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040643123186748</v>
+        <v>1.04960986525644</v>
       </c>
       <c r="J7">
-        <v>1.044239288896621</v>
+        <v>1.038213092273978</v>
       </c>
       <c r="K7">
-        <v>1.045310528050705</v>
+        <v>1.042629595942943</v>
       </c>
       <c r="L7">
-        <v>1.055851657428373</v>
+        <v>1.045478032862667</v>
       </c>
       <c r="M7">
-        <v>1.063711565919502</v>
+        <v>1.051439355116528</v>
       </c>
       <c r="N7">
-        <v>1.018667329564551</v>
+        <v>1.016516019950297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03861916821972</v>
+        <v>1.014164683417732</v>
       </c>
       <c r="D8">
-        <v>1.042007616612634</v>
+        <v>1.029163758931027</v>
       </c>
       <c r="E8">
-        <v>1.052314198301539</v>
+        <v>1.031061692820421</v>
       </c>
       <c r="F8">
-        <v>1.060082156385295</v>
+        <v>1.0366487303786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040384200757453</v>
+        <v>1.048146396953962</v>
       </c>
       <c r="J8">
-        <v>1.043597429717688</v>
+        <v>1.035369827917417</v>
       </c>
       <c r="K8">
-        <v>1.044722451419792</v>
+        <v>1.039962663873742</v>
       </c>
       <c r="L8">
-        <v>1.055000892687352</v>
+        <v>1.041836730493689</v>
       </c>
       <c r="M8">
-        <v>1.062748032712904</v>
+        <v>1.047354140559961</v>
       </c>
       <c r="N8">
-        <v>1.018452035070502</v>
+        <v>1.015554814090148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036671145115757</v>
+        <v>1.004747752821607</v>
       </c>
       <c r="D9">
-        <v>1.040536934080086</v>
+        <v>1.022301664891006</v>
       </c>
       <c r="E9">
-        <v>1.050388274047347</v>
+        <v>1.022416358100102</v>
       </c>
       <c r="F9">
-        <v>1.057961799466998</v>
+        <v>1.02719931998732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039921469852767</v>
+        <v>1.045399221793387</v>
       </c>
       <c r="J9">
-        <v>1.042466254727147</v>
+        <v>1.030133962516211</v>
       </c>
       <c r="K9">
-        <v>1.043684782480096</v>
+        <v>1.035042986476605</v>
       </c>
       <c r="L9">
-        <v>1.05350461891097</v>
+        <v>1.035155921283162</v>
       </c>
       <c r="M9">
-        <v>1.061054360953965</v>
+        <v>1.039865999371091</v>
       </c>
       <c r="N9">
-        <v>1.018072260131101</v>
+        <v>1.013783565755261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035375911124437</v>
+        <v>0.9981938853751647</v>
       </c>
       <c r="D10">
-        <v>1.039559202198092</v>
+        <v>1.01754429559148</v>
       </c>
       <c r="E10">
-        <v>1.049109724548928</v>
+        <v>1.016430159320524</v>
       </c>
       <c r="F10">
-        <v>1.056554429848424</v>
+        <v>1.0206559985496</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039608668931062</v>
+        <v>1.04344756359354</v>
       </c>
       <c r="J10">
-        <v>1.041712117086902</v>
+        <v>1.026479345554359</v>
       </c>
       <c r="K10">
-        <v>1.042992132175661</v>
+        <v>1.031603846384725</v>
       </c>
       <c r="L10">
-        <v>1.052509128359177</v>
+        <v>1.030508966273887</v>
       </c>
       <c r="M10">
-        <v>1.059928162264758</v>
+        <v>1.034662056000082</v>
       </c>
       <c r="N10">
-        <v>1.017818835835243</v>
+        <v>1.012546613940917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034815897787729</v>
+        <v>0.9952847468321286</v>
       </c>
       <c r="D11">
-        <v>1.039136500724814</v>
+        <v>1.01543762572269</v>
       </c>
       <c r="E11">
-        <v>1.048557401715347</v>
+        <v>1.013780702529252</v>
       </c>
       <c r="F11">
-        <v>1.055946517100101</v>
+        <v>1.017759749601438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039472208122711</v>
+        <v>1.04257228561023</v>
       </c>
       <c r="J11">
-        <v>1.041385577183917</v>
+        <v>1.024855010054034</v>
       </c>
       <c r="K11">
-        <v>1.042692015562946</v>
+        <v>1.030074167342927</v>
       </c>
       <c r="L11">
-        <v>1.052078568738936</v>
+        <v>1.028447331696831</v>
       </c>
       <c r="M11">
-        <v>1.059441217215251</v>
+        <v>1.032354338770117</v>
       </c>
       <c r="N11">
-        <v>1.017709048834058</v>
+        <v>1.011996727835097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034608010383187</v>
+        <v>0.9941929278147027</v>
       </c>
       <c r="D12">
-        <v>1.038979591894655</v>
+        <v>1.014647794455626</v>
       </c>
       <c r="E12">
-        <v>1.048352441174316</v>
+        <v>1.012787539885101</v>
       </c>
       <c r="F12">
-        <v>1.055720936578202</v>
+        <v>1.016674032488023</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039421368545196</v>
+        <v>1.042242478930817</v>
       </c>
       <c r="J12">
-        <v>1.04126428792901</v>
+        <v>1.024245103059851</v>
       </c>
       <c r="K12">
-        <v>1.04258051089416</v>
+        <v>1.029499645327213</v>
       </c>
       <c r="L12">
-        <v>1.051918715477338</v>
+        <v>1.027673784090688</v>
       </c>
       <c r="M12">
-        <v>1.059260451868323</v>
+        <v>1.0314886077633</v>
       </c>
       <c r="N12">
-        <v>1.017668261605361</v>
+        <v>1.011790243085007</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034652597188499</v>
+        <v>0.9944276439562844</v>
       </c>
       <c r="D13">
-        <v>1.039013244758809</v>
+        <v>1.014817552283912</v>
       </c>
       <c r="E13">
-        <v>1.048396396973609</v>
+        <v>1.013000992470233</v>
       </c>
       <c r="F13">
-        <v>1.055769314139098</v>
+        <v>1.016907379206538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039432280672652</v>
+        <v>1.042313438343493</v>
       </c>
       <c r="J13">
-        <v>1.041290304766859</v>
+        <v>1.024376231338655</v>
       </c>
       <c r="K13">
-        <v>1.042604430271427</v>
+        <v>1.029623172841575</v>
       </c>
       <c r="L13">
-        <v>1.051953001092866</v>
+        <v>1.02784006959577</v>
       </c>
       <c r="M13">
-        <v>1.05929922174842</v>
+        <v>1.031674702777201</v>
       </c>
       <c r="N13">
-        <v>1.017677010934103</v>
+        <v>1.011834637255554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034798711160786</v>
+        <v>0.9951947290959294</v>
       </c>
       <c r="D14">
-        <v>1.039123528515131</v>
+        <v>1.015372489177319</v>
       </c>
       <c r="E14">
-        <v>1.048540455588936</v>
+        <v>1.013698794212646</v>
       </c>
       <c r="F14">
-        <v>1.055927865936227</v>
+        <v>1.01767020905693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039468008803335</v>
+        <v>1.042545120265783</v>
       </c>
       <c r="J14">
-        <v>1.041375551324349</v>
+        <v>1.02480473030193</v>
       </c>
       <c r="K14">
-        <v>1.042682799116298</v>
+        <v>1.030026807794864</v>
       </c>
       <c r="L14">
-        <v>1.052065353664581</v>
+        <v>1.028383550397226</v>
       </c>
       <c r="M14">
-        <v>1.059426272888481</v>
+        <v>1.032282953663242</v>
       </c>
       <c r="N14">
-        <v>1.017705677498316</v>
+        <v>1.011979705809154</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03488875360835</v>
+        <v>0.9956658504362449</v>
       </c>
       <c r="D15">
-        <v>1.039191491454446</v>
+        <v>1.015713424703239</v>
       </c>
       <c r="E15">
-        <v>1.04862924098206</v>
+        <v>1.014127522702319</v>
       </c>
       <c r="F15">
-        <v>1.056025584846366</v>
+        <v>1.018138884696605</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039490001968288</v>
+        <v>1.042687241024872</v>
       </c>
       <c r="J15">
-        <v>1.041428074869967</v>
+        <v>1.025067865603421</v>
       </c>
       <c r="K15">
-        <v>1.042731081074847</v>
+        <v>1.030274654102518</v>
       </c>
       <c r="L15">
-        <v>1.052134587874302</v>
+        <v>1.02871736769377</v>
       </c>
       <c r="M15">
-        <v>1.05950456761153</v>
+        <v>1.032656573682977</v>
       </c>
       <c r="N15">
-        <v>1.017723338941314</v>
+        <v>1.012068788791577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035413095017269</v>
+        <v>0.9983854093966484</v>
       </c>
       <c r="D16">
-        <v>1.039587269616391</v>
+        <v>1.017683098870881</v>
       </c>
       <c r="E16">
-        <v>1.049146407888554</v>
+        <v>1.016604751058928</v>
       </c>
       <c r="F16">
-        <v>1.056594806514744</v>
+        <v>1.020846847814455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039617704038418</v>
+        <v>1.043505003864025</v>
       </c>
       <c r="J16">
-        <v>1.041733788707961</v>
+        <v>1.026586242917123</v>
       </c>
       <c r="K16">
-        <v>1.043012045933846</v>
+        <v>1.031704492074215</v>
       </c>
       <c r="L16">
-        <v>1.052537713725038</v>
+        <v>1.030644719939766</v>
       </c>
       <c r="M16">
-        <v>1.059960494223412</v>
+        <v>1.034814034637144</v>
       </c>
       <c r="N16">
-        <v>1.01782612096743</v>
+        <v>1.012582799903536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035742224250808</v>
+        <v>1.000071872958274</v>
       </c>
       <c r="D17">
-        <v>1.039835709493505</v>
+        <v>1.018905911597437</v>
       </c>
       <c r="E17">
-        <v>1.049471161691346</v>
+        <v>1.01814300049939</v>
       </c>
       <c r="F17">
-        <v>1.056952263800569</v>
+        <v>1.02252830938595</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039697536652926</v>
+        <v>1.044009775278487</v>
       </c>
       <c r="J17">
-        <v>1.041925557555999</v>
+        <v>1.0275272894746</v>
       </c>
       <c r="K17">
-        <v>1.043188236564931</v>
+        <v>1.032590377726367</v>
       </c>
       <c r="L17">
-        <v>1.052790717318991</v>
+        <v>1.031840223509277</v>
       </c>
       <c r="M17">
-        <v>1.060246675194112</v>
+        <v>1.036152538618612</v>
       </c>
       <c r="N17">
-        <v>1.017890579653807</v>
+        <v>1.012901342765107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035934279890238</v>
+        <v>1.001048719321359</v>
       </c>
       <c r="D18">
-        <v>1.03998068411349</v>
+        <v>1.019614673393508</v>
       </c>
       <c r="E18">
-        <v>1.049660710162034</v>
+        <v>1.019034726933389</v>
       </c>
       <c r="F18">
-        <v>1.057160905993928</v>
+        <v>1.02350303667746</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03974400359682</v>
+        <v>1.044301297102417</v>
       </c>
       <c r="J18">
-        <v>1.042037413643655</v>
+        <v>1.02807216576483</v>
       </c>
       <c r="K18">
-        <v>1.043290986734747</v>
+        <v>1.033103208634966</v>
       </c>
       <c r="L18">
-        <v>1.052938337633881</v>
+        <v>1.032532790571724</v>
       </c>
       <c r="M18">
-        <v>1.060413667764228</v>
+        <v>1.036928045202238</v>
       </c>
       <c r="N18">
-        <v>1.017928172208485</v>
+        <v>1.013085772001958</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035999779443604</v>
+        <v>1.00138065413274</v>
       </c>
       <c r="D19">
-        <v>1.040030127488727</v>
+        <v>1.019855591218605</v>
       </c>
       <c r="E19">
-        <v>1.049725362451439</v>
+        <v>1.019337860450339</v>
       </c>
       <c r="F19">
-        <v>1.057232071858078</v>
+        <v>1.023834382525663</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039759830969027</v>
+        <v>1.044400210634259</v>
       </c>
       <c r="J19">
-        <v>1.042075553737882</v>
+        <v>1.028257280451053</v>
       </c>
       <c r="K19">
-        <v>1.043326018653931</v>
+        <v>1.033277417916262</v>
       </c>
       <c r="L19">
-        <v>1.05298868037501</v>
+        <v>1.032768142137351</v>
       </c>
       <c r="M19">
-        <v>1.060470619409421</v>
+        <v>1.037191598445793</v>
       </c>
       <c r="N19">
-        <v>1.017940989418129</v>
+        <v>1.013148427560338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035706903499872</v>
+        <v>0.999891642512994</v>
       </c>
       <c r="D20">
-        <v>1.039809047629869</v>
+        <v>1.018775181329931</v>
       </c>
       <c r="E20">
-        <v>1.049436305731903</v>
+        <v>1.01797853357045</v>
       </c>
       <c r="F20">
-        <v>1.056913897170234</v>
+        <v>1.022348532569178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039688981507825</v>
+        <v>1.043955919408265</v>
       </c>
       <c r="J20">
-        <v>1.041904982506575</v>
+        <v>1.02742674179867</v>
       </c>
       <c r="K20">
-        <v>1.043169334918035</v>
+        <v>1.032495734791656</v>
       </c>
       <c r="L20">
-        <v>1.052763567493692</v>
+        <v>1.031712450937845</v>
       </c>
       <c r="M20">
-        <v>1.060215963633932</v>
+        <v>1.036009472378181</v>
       </c>
       <c r="N20">
-        <v>1.017883664371694</v>
+        <v>1.012867308599543</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034755680733672</v>
+        <v>0.9949691561946831</v>
       </c>
       <c r="D21">
-        <v>1.039091049886916</v>
+        <v>1.01520927870254</v>
       </c>
       <c r="E21">
-        <v>1.048498028471431</v>
+        <v>1.013493561885274</v>
       </c>
       <c r="F21">
-        <v>1.055881170148432</v>
+        <v>1.017445852419598</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039457491948669</v>
+        <v>1.042477026438434</v>
       </c>
       <c r="J21">
-        <v>1.041350448267377</v>
+        <v>1.024678731252956</v>
       </c>
       <c r="K21">
-        <v>1.04265972220781</v>
+        <v>1.029908124172495</v>
       </c>
       <c r="L21">
-        <v>1.052032266529503</v>
+        <v>1.028223725956637</v>
       </c>
       <c r="M21">
-        <v>1.059388856507824</v>
+        <v>1.03210407784456</v>
       </c>
       <c r="N21">
-        <v>1.017697236111598</v>
+        <v>1.011937049094497</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034158341793119</v>
+        <v>0.9918089037747259</v>
       </c>
       <c r="D22">
-        <v>1.038640203255912</v>
+        <v>1.01292473761096</v>
       </c>
       <c r="E22">
-        <v>1.04790923555875</v>
+        <v>1.010621177508399</v>
       </c>
       <c r="F22">
-        <v>1.055233158345836</v>
+        <v>1.01430569130501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039311066433263</v>
+        <v>1.041519973594198</v>
       </c>
       <c r="J22">
-        <v>1.041001803930711</v>
+        <v>1.022912870257613</v>
       </c>
       <c r="K22">
-        <v>1.042339147097527</v>
+        <v>1.028244428746137</v>
       </c>
       <c r="L22">
-        <v>1.051572907599755</v>
+        <v>1.02598512288791</v>
       </c>
       <c r="M22">
-        <v>1.058869445488468</v>
+        <v>1.029598978694729</v>
       </c>
       <c r="N22">
-        <v>1.01757997839772</v>
+        <v>1.011339193895515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034474932508172</v>
+        <v>0.993490586848608</v>
       </c>
       <c r="D23">
-        <v>1.038879149363761</v>
+        <v>1.0141399524452</v>
       </c>
       <c r="E23">
-        <v>1.04822125723009</v>
+        <v>1.012149004175655</v>
       </c>
       <c r="F23">
-        <v>1.0555765573785</v>
+        <v>1.015975976993006</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039388772446855</v>
+        <v>1.042029958392756</v>
       </c>
       <c r="J23">
-        <v>1.041186625223185</v>
+        <v>1.023852689300519</v>
       </c>
       <c r="K23">
-        <v>1.042509104917924</v>
+        <v>1.029129955450985</v>
       </c>
       <c r="L23">
-        <v>1.051816380351854</v>
+        <v>1.027176240035469</v>
       </c>
       <c r="M23">
-        <v>1.059144735410762</v>
+        <v>1.030931813064762</v>
       </c>
       <c r="N23">
-        <v>1.017642142841643</v>
+        <v>1.011657387691307</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035722863179464</v>
+        <v>0.9999731019907033</v>
       </c>
       <c r="D24">
-        <v>1.039821094781359</v>
+        <v>1.018834266546431</v>
       </c>
       <c r="E24">
-        <v>1.049452055253395</v>
+        <v>1.018052866089426</v>
       </c>
       <c r="F24">
-        <v>1.056931232956137</v>
+        <v>1.022429784608939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039692847512744</v>
+        <v>1.043980263517336</v>
       </c>
       <c r="J24">
-        <v>1.041914279484174</v>
+        <v>1.027472187370004</v>
       </c>
       <c r="K24">
-        <v>1.043177875817033</v>
+        <v>1.032538511867428</v>
       </c>
       <c r="L24">
-        <v>1.052775835184204</v>
+        <v>1.031770200517944</v>
       </c>
       <c r="M24">
-        <v>1.060229840655941</v>
+        <v>1.036074133959131</v>
       </c>
       <c r="N24">
-        <v>1.017886789105851</v>
+        <v>1.012882691405832</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037174154828436</v>
+        <v>1.00722902400352</v>
       </c>
       <c r="D25">
-        <v>1.040916668181653</v>
+        <v>1.024106791684127</v>
       </c>
       <c r="E25">
-        <v>1.050885227624768</v>
+        <v>1.024689159434208</v>
       </c>
       <c r="F25">
-        <v>1.058508877428793</v>
+        <v>1.029683530295263</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040041860188395</v>
+        <v>1.046130081456775</v>
       </c>
       <c r="J25">
-        <v>1.042758699491904</v>
+        <v>1.031515528017269</v>
       </c>
       <c r="K25">
-        <v>1.043953203580112</v>
+        <v>1.036342061560936</v>
       </c>
       <c r="L25">
-        <v>1.053891090974873</v>
+        <v>1.036915927035069</v>
       </c>
       <c r="M25">
-        <v>1.061491708664644</v>
+        <v>1.041837882919784</v>
       </c>
       <c r="N25">
-        <v>1.01817048550731</v>
+        <v>1.014251058435238</v>
       </c>
     </row>
   </sheetData>
